--- a/2016年6.20-6.26/6.20-6.26.xlsx
+++ b/2016年6.20-6.26/6.20-6.26.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="615">
   <si>
     <t>ID</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>与尔同销萬古愁</t>
-  </si>
-  <si>
-    <t>机智勇敢的小炮</t>
   </si>
   <si>
     <t>在下唐银</t>
@@ -2382,7 +2379,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,8 +2573,8 @@
         <v>19</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>36</v>
+      <c r="E6" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -2587,7 +2584,7 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="10">
         <v>1</v>
@@ -2597,7 +2594,7 @@
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="11">
         <v>1</v>
@@ -2608,7 +2605,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
@@ -2618,7 +2615,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
@@ -2628,7 +2625,7 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="10">
         <v>6</v>
@@ -2638,7 +2635,7 @@
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" s="11">
         <v>2</v>
@@ -2649,7 +2646,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="10">
         <v>9</v>
@@ -2659,7 +2656,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -2669,7 +2666,7 @@
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -2679,7 +2676,7 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="10">
         <v>1</v>
@@ -2690,7 +2687,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
@@ -2710,7 +2707,7 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="10">
         <v>0</v>
@@ -2720,7 +2717,7 @@
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="10">
         <v>2</v>
@@ -2731,7 +2728,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="10">
         <v>3</v>
@@ -2745,7 +2742,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="10">
         <v>3</v>
@@ -2755,7 +2752,7 @@
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="10">
         <v>4</v>
@@ -2766,7 +2763,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="10">
         <v>10</v>
@@ -2790,7 +2787,7 @@
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" s="11">
         <v>4</v>
@@ -2801,7 +2798,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="10">
         <v>6</v>
@@ -2819,7 +2816,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" s="11">
         <v>2</v>
@@ -2848,7 +2845,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N13" s="10">
         <v>6</v>
@@ -2871,7 +2868,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" s="11">
         <v>1</v>
@@ -2894,7 +2891,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N15" s="10">
         <v>1</v>
@@ -2917,7 +2914,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" s="10">
         <v>8</v>
@@ -2961,7 +2958,7 @@
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F21" s="16">
         <v>0</v>
@@ -2971,7 +2968,7 @@
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J21" s="17">
         <v>0</v>
@@ -3002,7 +2999,7 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="16">
         <v>0</v>
@@ -3022,7 +3019,7 @@
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N22" s="17">
         <v>2</v>
@@ -3043,7 +3040,7 @@
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="16">
         <v>4</v>
@@ -3053,7 +3050,7 @@
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" s="16">
         <v>0</v>
@@ -3063,7 +3060,7 @@
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23" s="17">
         <v>2</v>
@@ -3074,7 +3071,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="16">
         <v>2</v>
@@ -3084,7 +3081,7 @@
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="16">
         <v>3</v>
@@ -3104,7 +3101,7 @@
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N24" s="17">
         <v>6</v>
@@ -3115,7 +3112,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" s="16">
         <v>2</v>
@@ -3125,7 +3122,7 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="16">
         <v>0</v>
@@ -3135,7 +3132,7 @@
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25" s="16">
         <v>0</v>
@@ -3145,7 +3142,7 @@
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N25" s="16">
         <v>7</v>
@@ -3156,7 +3153,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="16">
         <v>5</v>
@@ -3166,7 +3163,7 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="16">
         <v>2</v>
@@ -3176,7 +3173,7 @@
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26" s="16">
         <v>6</v>
@@ -3186,7 +3183,7 @@
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N26" s="16">
         <v>0</v>
@@ -3197,7 +3194,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="16">
         <v>21</v>
@@ -3207,7 +3204,7 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="17">
         <v>0</v>
@@ -3217,7 +3214,7 @@
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J27" s="16">
         <v>2</v>
@@ -3227,7 +3224,7 @@
       </c>
       <c r="L27" s="15"/>
       <c r="M27" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N27" s="16">
         <v>4</v>
@@ -3238,7 +3235,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B28" s="16">
         <v>0</v>
@@ -3258,7 +3255,7 @@
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" s="16">
         <v>0</v>
@@ -3268,7 +3265,7 @@
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N28" s="17">
         <v>5</v>
@@ -3279,7 +3276,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="16">
         <v>0</v>
@@ -3293,7 +3290,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J29" s="16">
         <v>10</v>
@@ -3303,7 +3300,7 @@
       </c>
       <c r="L29" s="15"/>
       <c r="M29" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N29" s="17">
         <v>1</v>
@@ -3314,7 +3311,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="16">
         <v>1</v>
@@ -3328,7 +3325,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J30" s="16">
         <v>1</v>
@@ -3338,7 +3335,7 @@
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N30" s="16">
         <v>0</v>
@@ -3349,7 +3346,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B31" s="16">
         <v>1</v>
@@ -3363,7 +3360,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J31" s="16">
         <v>2</v>
@@ -3373,7 +3370,7 @@
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="17">
         <v>1</v>
@@ -3398,7 +3395,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J32" s="17">
         <v>3</v>
@@ -3408,7 +3405,7 @@
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N32" s="16">
         <v>6</v>
@@ -3427,7 +3424,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J33" s="16">
         <v>3</v>
@@ -3437,7 +3434,7 @@
       </c>
       <c r="L33" s="15"/>
       <c r="M33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N33" s="16">
         <v>1</v>
@@ -3456,7 +3453,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" s="16">
         <v>1</v>
@@ -3466,7 +3463,7 @@
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N34" s="16">
         <v>4</v>
@@ -3495,7 +3492,7 @@
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N35" s="16">
         <v>1</v>
@@ -3560,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,96 +3584,96 @@
         <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M2" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3687,42 +3684,42 @@
         <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3733,13 +3730,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>27</v>
@@ -3750,275 +3747,275 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>28</v>
@@ -4026,160 +4023,160 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>32</v>
@@ -4193,269 +4190,269 @@
         <v>32</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>28</v>
@@ -4463,233 +4460,233 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="K43" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4700,64 +4697,64 @@
         <v>35</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4768,379 +4765,379 @@
         <v>27</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>36</v>
+        <v>86</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E71" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E72" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E73" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E74" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E75" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E76" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E77" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E78" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E79" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E80" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E81" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G82" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G83" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5199,7 +5196,7 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -5258,7 +5255,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A4)</f>
@@ -5284,7 +5281,7 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A5)</f>
@@ -5336,7 +5333,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A7)</f>
@@ -5362,7 +5359,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A8)</f>
@@ -5388,7 +5385,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A9)</f>
@@ -5414,7 +5411,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A10)</f>
@@ -5440,7 +5437,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A11)</f>
@@ -5466,7 +5463,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A12)</f>
@@ -5518,7 +5515,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A14)</f>
@@ -5544,7 +5541,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A15)</f>
@@ -5570,7 +5567,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A16)</f>
@@ -5596,7 +5593,7 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A17)</f>
@@ -5622,7 +5619,7 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A18)</f>
@@ -5648,7 +5645,7 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A19)</f>
@@ -5674,7 +5671,7 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A20)</f>
@@ -5700,7 +5697,7 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A21)</f>
@@ -5726,7 +5723,7 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A22)</f>
@@ -5752,7 +5749,7 @@
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A23)</f>
@@ -5778,7 +5775,7 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A24)</f>
@@ -5804,7 +5801,7 @@
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A25)</f>
@@ -5830,7 +5827,7 @@
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A26)</f>
@@ -5856,7 +5853,7 @@
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A27)</f>
@@ -5882,7 +5879,7 @@
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A28)</f>
@@ -5908,7 +5905,7 @@
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A29)</f>
@@ -5934,7 +5931,7 @@
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A30)</f>
@@ -5960,7 +5957,7 @@
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A31)</f>
@@ -5986,7 +5983,7 @@
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A32)</f>
@@ -6012,7 +6009,7 @@
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A33)</f>
@@ -6038,7 +6035,7 @@
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A34)</f>
@@ -6064,7 +6061,7 @@
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A35)</f>
@@ -6090,7 +6087,7 @@
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A36)</f>
@@ -6116,7 +6113,7 @@
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B37" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A37)</f>
@@ -6142,7 +6139,7 @@
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A38)</f>
@@ -6168,7 +6165,7 @@
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B39" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A39)</f>
@@ -6194,7 +6191,7 @@
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A40)</f>
@@ -6220,7 +6217,7 @@
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B41" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A41)</f>
@@ -6246,7 +6243,7 @@
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A42)</f>
@@ -6272,7 +6269,7 @@
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B43" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A43)</f>
@@ -6298,7 +6295,7 @@
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B44" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A44)</f>
@@ -6324,7 +6321,7 @@
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B45" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A45)</f>
@@ -6350,7 +6347,7 @@
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B46" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A46)</f>
@@ -6376,7 +6373,7 @@
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B47" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A47)</f>
@@ -6402,7 +6399,7 @@
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B48" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A48)</f>
@@ -6428,7 +6425,7 @@
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B49" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A49)</f>
@@ -6454,7 +6451,7 @@
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B50" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A50)</f>
@@ -6480,7 +6477,7 @@
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B51" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A51)</f>
@@ -6506,7 +6503,7 @@
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B52" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A52)</f>
@@ -6532,7 +6529,7 @@
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B53" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A53)</f>
@@ -6558,7 +6555,7 @@
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B54" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A54)</f>
@@ -6584,7 +6581,7 @@
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B55" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A55)</f>
@@ -6610,7 +6607,7 @@
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A56)</f>
@@ -6636,7 +6633,7 @@
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B57" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A57)</f>
@@ -6662,7 +6659,7 @@
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B58" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A58)</f>
@@ -6688,7 +6685,7 @@
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B59" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A59)</f>
@@ -6714,7 +6711,7 @@
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B60" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A60)</f>
@@ -6740,7 +6737,7 @@
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B61" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A61)</f>
@@ -6766,7 +6763,7 @@
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A62)</f>
@@ -6792,7 +6789,7 @@
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B63" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A63)</f>
@@ -6818,7 +6815,7 @@
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B64" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A64)</f>
@@ -6844,7 +6841,7 @@
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B65" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A65)</f>
@@ -6870,7 +6867,7 @@
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B66" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A66)</f>
@@ -6896,7 +6893,7 @@
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B67" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A67)</f>
@@ -6922,7 +6919,7 @@
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B68" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A68)</f>
@@ -6948,7 +6945,7 @@
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B69" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A69)</f>
@@ -6974,7 +6971,7 @@
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B70" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A70)</f>
@@ -7000,7 +6997,7 @@
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B71" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A71)</f>
@@ -7026,7 +7023,7 @@
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B72" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A72)</f>
@@ -7052,7 +7049,7 @@
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B73" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A73)</f>
@@ -7078,7 +7075,7 @@
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A74)</f>
@@ -7104,7 +7101,7 @@
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B75" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A75)</f>
@@ -7130,7 +7127,7 @@
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B76" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A76)</f>
@@ -7156,7 +7153,7 @@
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B77" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A77)</f>
@@ -7182,7 +7179,7 @@
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A78)</f>
@@ -7208,7 +7205,7 @@
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B79" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A79)</f>
@@ -7234,7 +7231,7 @@
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B80" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A80)</f>
@@ -7260,7 +7257,7 @@
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B81" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A81)</f>
@@ -7286,7 +7283,7 @@
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B82" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A82)</f>
@@ -7312,7 +7309,7 @@
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B83" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A83)</f>
@@ -7338,7 +7335,7 @@
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B84" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A84)</f>
@@ -7364,7 +7361,7 @@
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B85" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A85)</f>
@@ -7390,7 +7387,7 @@
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B86" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A86)</f>
@@ -7416,7 +7413,7 @@
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B87" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A87)</f>
@@ -7442,7 +7439,7 @@
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B88" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A88)</f>
@@ -7468,7 +7465,7 @@
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B89" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A89)</f>
@@ -7494,7 +7491,7 @@
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B90" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A90)</f>
@@ -7520,7 +7517,7 @@
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B91" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A91)</f>
@@ -7546,7 +7543,7 @@
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B92" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A92)</f>
@@ -7572,7 +7569,7 @@
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B93" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A93)</f>
@@ -7598,7 +7595,7 @@
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B94" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A94)</f>
@@ -7624,7 +7621,7 @@
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B95" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A95)</f>
@@ -7650,7 +7647,7 @@
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B96" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A96)</f>
@@ -7676,7 +7673,7 @@
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B97" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A97)</f>
@@ -7702,7 +7699,7 @@
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B98" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A98)</f>
@@ -7728,7 +7725,7 @@
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B99" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A99)</f>
@@ -7754,7 +7751,7 @@
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B100" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A100)</f>
@@ -7780,7 +7777,7 @@
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B101" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A101)</f>
@@ -7806,7 +7803,7 @@
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B102" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A102)</f>
@@ -7832,7 +7829,7 @@
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B103" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A103)</f>
@@ -7858,7 +7855,7 @@
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B104" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A104)</f>
@@ -7884,7 +7881,7 @@
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B105" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A105)</f>
@@ -7910,7 +7907,7 @@
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B106" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A106)</f>
@@ -7936,7 +7933,7 @@
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B107" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A107)</f>
@@ -7962,7 +7959,7 @@
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B108" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A108)</f>
@@ -7988,7 +7985,7 @@
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B109" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A109)</f>
@@ -8014,7 +8011,7 @@
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B110" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A110)</f>
@@ -8040,7 +8037,7 @@
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B111" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A111)</f>
@@ -8066,7 +8063,7 @@
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B112" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A112)</f>
@@ -8092,7 +8089,7 @@
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B113" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A113)</f>
@@ -8118,7 +8115,7 @@
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B114" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A114)</f>
@@ -8144,7 +8141,7 @@
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B115" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A115)</f>
@@ -8170,7 +8167,7 @@
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B116" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A116)</f>
@@ -8196,7 +8193,7 @@
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B117" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A117)</f>
@@ -8222,7 +8219,7 @@
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B118" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A118)</f>
@@ -8248,7 +8245,7 @@
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B119" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A119)</f>
@@ -8274,7 +8271,7 @@
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B120" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A120)</f>
@@ -8300,7 +8297,7 @@
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B121" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A121)</f>
@@ -8326,7 +8323,7 @@
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A122)</f>
@@ -8352,7 +8349,7 @@
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B123" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A123)</f>
@@ -8378,7 +8375,7 @@
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B124" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A124)</f>
@@ -8404,7 +8401,7 @@
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B125" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A125)</f>
@@ -8430,7 +8427,7 @@
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B126" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A126)</f>
@@ -8456,7 +8453,7 @@
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B127" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A127)</f>
@@ -8482,7 +8479,7 @@
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B128" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A128)</f>
@@ -8508,7 +8505,7 @@
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B129" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A129)</f>
@@ -8534,7 +8531,7 @@
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B130" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A130)</f>
@@ -8549,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="8">
-        <f t="shared" ref="E130:E161" si="8">SUM(B130:D130)</f>
+        <f t="shared" ref="E130:E147" si="8">SUM(B130:D130)</f>
         <v>0</v>
       </c>
       <c r="F130" s="8"/>
@@ -8560,7 +8557,7 @@
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B131" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A131)</f>
@@ -8586,7 +8583,7 @@
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B132" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A132)</f>
@@ -8612,7 +8609,7 @@
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B133" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A133)</f>
@@ -8638,7 +8635,7 @@
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B134" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A134)</f>
@@ -8664,7 +8661,7 @@
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B135" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A135)</f>
@@ -8690,7 +8687,7 @@
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B136" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A136)</f>
@@ -8716,7 +8713,7 @@
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B137" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A137)</f>
@@ -8742,7 +8739,7 @@
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B138" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A138)</f>
@@ -8768,7 +8765,7 @@
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B139" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A139)</f>
@@ -8794,7 +8791,7 @@
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B140" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A140)</f>
@@ -8820,7 +8817,7 @@
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B141" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A141)</f>
@@ -8846,7 +8843,7 @@
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B142" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A142)</f>
@@ -8872,7 +8869,7 @@
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B143" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A143)</f>
@@ -8898,7 +8895,7 @@
     </row>
     <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B144" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A144)</f>
@@ -8924,7 +8921,7 @@
     </row>
     <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B145" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A145)</f>
@@ -8950,7 +8947,7 @@
     </row>
     <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B146" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A146)</f>
@@ -8976,7 +8973,7 @@
     </row>
     <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B147" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A147)</f>
@@ -9012,8 +9009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9058,7 +9055,7 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -9073,17 +9070,17 @@
         <v>2</v>
       </c>
       <c r="E2" s="8">
-        <f t="shared" ref="E2:E33" si="0">SUM(B2:D2)</f>
+        <f>SUM(B2:D2)</f>
         <v>10</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G33" si="1">IF($E2&gt;6,6,$E2)</f>
+        <f>IF($E2&gt;6,6,$E2)</f>
         <v>6</v>
       </c>
       <c r="I2" s="4">
         <f>SUM(G2:G150)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(E2:E150)-I2</f>
@@ -9092,7 +9089,7 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A3)</f>
@@ -9107,18 +9104,18 @@
         <v>1</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:D3)</f>
         <v>9</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E3&gt;6,6,$E3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A4)</f>
@@ -9133,18 +9130,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:D4)</f>
         <v>7</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E4&gt;6,6,$E4)</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A5)</f>
@@ -9159,18 +9156,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:D5)</f>
         <v>6</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E5&gt;6,6,$E5)</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A6)</f>
@@ -9185,18 +9182,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:D6)</f>
         <v>6</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E6&gt;6,6,$E6)</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A7)</f>
@@ -9211,18 +9208,18 @@
         <v>1</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:D7)</f>
         <v>6</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E7&gt;6,6,$E7)</f>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A8)</f>
@@ -9237,12 +9234,12 @@
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:D8)</f>
         <v>5</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E8&gt;6,6,$E8)</f>
         <v>5</v>
       </c>
     </row>
@@ -9263,18 +9260,18 @@
         <v>1</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:D9)</f>
         <v>5</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E9&gt;6,6,$E9)</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A10)</f>
@@ -9289,12 +9286,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:D10)</f>
         <v>5</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E10&gt;6,6,$E10)</f>
         <v>5</v>
       </c>
     </row>
@@ -9315,18 +9312,18 @@
         <v>1</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:D11)</f>
         <v>5</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E11&gt;6,6,$E11)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B12" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A12)</f>
@@ -9338,21 +9335,21 @@
       </c>
       <c r="D12" s="8">
         <f>COUNTIF(帮战总榜!A$1:O$149,$A12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B12:D12)</f>
+        <v>5</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>IF($E12&gt;6,6,$E12)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B13" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A13)</f>
@@ -9367,18 +9364,18 @@
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:D13)</f>
         <v>4</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E13&gt;6,6,$E13)</f>
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B14" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A14)</f>
@@ -9393,18 +9390,18 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:D14)</f>
         <v>4</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E14&gt;6,6,$E14)</f>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="B15" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A15)</f>
@@ -9419,18 +9416,18 @@
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:D15)</f>
         <v>4</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E15&gt;6,6,$E15)</f>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B16" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A16)</f>
@@ -9438,25 +9435,25 @@
       </c>
       <c r="C16" s="8">
         <f>COUNTIF('盟会战+四海+帮派+驻地'!A$1:Z$151,$A16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="8">
         <f>COUNTIF(帮战总榜!A$1:O$149,$A16)</f>
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B16:D16)</f>
+        <v>4</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>IF($E16&gt;6,6,$E16)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B17" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A17)</f>
@@ -9471,18 +9468,18 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:D17)</f>
         <v>3</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E17&gt;6,6,$E17)</f>
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A18)</f>
@@ -9497,18 +9494,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:D18)</f>
         <v>3</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E18&gt;6,6,$E18)</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A19)</f>
@@ -9523,18 +9520,18 @@
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:D19)</f>
         <v>2</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E19&gt;6,6,$E19)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A20)</f>
@@ -9549,18 +9546,18 @@
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:D20)</f>
         <v>2</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E20&gt;6,6,$E20)</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A21)</f>
@@ -9575,18 +9572,18 @@
         <v>0</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:D21)</f>
         <v>2</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E21&gt;6,6,$E21)</f>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A22)</f>
@@ -9601,18 +9598,18 @@
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:D22)</f>
         <v>2</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E22&gt;6,6,$E22)</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A23)</f>
@@ -9627,18 +9624,18 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:D23)</f>
         <v>2</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23&gt;6,6,$E23)</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A24)</f>
@@ -9653,18 +9650,18 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:D24)</f>
         <v>2</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24&gt;6,6,$E24)</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A25)</f>
@@ -9679,18 +9676,18 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:D25)</f>
         <v>2</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E25&gt;6,6,$E25)</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A26)</f>
@@ -9705,18 +9702,18 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:D26)</f>
         <v>2</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E26&gt;6,6,$E26)</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A27)</f>
@@ -9731,18 +9728,18 @@
         <v>2</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:D27)</f>
         <v>2</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E27&gt;6,6,$E27)</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A28)</f>
@@ -9757,18 +9754,18 @@
         <v>1</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:D28)</f>
         <v>2</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E28&gt;6,6,$E28)</f>
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A29)</f>
@@ -9783,18 +9780,18 @@
         <v>0</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:D29)</f>
         <v>1</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E29&gt;6,6,$E29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A30)</f>
@@ -9809,18 +9806,18 @@
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:D30)</f>
         <v>1</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E30&gt;6,6,$E30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A31)</f>
@@ -9835,18 +9832,18 @@
         <v>0</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:D31)</f>
         <v>1</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E31&gt;6,6,$E31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A32)</f>
@@ -9861,18 +9858,18 @@
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:D32)</f>
         <v>1</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E32&gt;6,6,$E32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A33)</f>
@@ -9887,18 +9884,18 @@
         <v>0</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:D33)</f>
         <v>0</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E33&gt;6,6,$E33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A34)</f>
@@ -9913,18 +9910,18 @@
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" ref="E34:E65" si="2">SUM(B34:D34)</f>
+        <f>SUM(B34:D34)</f>
         <v>0</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8">
-        <f t="shared" ref="G34:G65" si="3">IF($E34&gt;6,6,$E34)</f>
+        <f>IF($E34&gt;6,6,$E34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A35)</f>
@@ -9939,18 +9936,18 @@
         <v>0</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B35:D35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E35&gt;6,6,$E35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A36)</f>
@@ -9965,18 +9962,18 @@
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B36:D36)</f>
         <v>0</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E36&gt;6,6,$E36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B37" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A37)</f>
@@ -9991,18 +9988,18 @@
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B37:D37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E37&gt;6,6,$E37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A38)</f>
@@ -10017,18 +10014,18 @@
         <v>0</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B38:D38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E38&gt;6,6,$E38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B39" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A39)</f>
@@ -10043,18 +10040,18 @@
         <v>0</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B39:D39)</f>
         <v>0</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E39&gt;6,6,$E39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A40)</f>
@@ -10069,18 +10066,18 @@
         <v>0</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B40:D40)</f>
         <v>0</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E40&gt;6,6,$E40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B41" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A41)</f>
@@ -10095,18 +10092,18 @@
         <v>0</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B41:D41)</f>
         <v>0</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E41&gt;6,6,$E41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A42)</f>
@@ -10121,18 +10118,18 @@
         <v>0</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B42:D42)</f>
         <v>0</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E42&gt;6,6,$E42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B43" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A43)</f>
@@ -10147,18 +10144,18 @@
         <v>0</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B43:D43)</f>
         <v>0</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E43&gt;6,6,$E43)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A44)</f>
@@ -10173,18 +10170,18 @@
         <v>0</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B44:D44)</f>
         <v>0</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E44&gt;6,6,$E44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B45" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A45)</f>
@@ -10199,18 +10196,18 @@
         <v>0</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B45:D45)</f>
         <v>0</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E45&gt;6,6,$E45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B46" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A46)</f>
@@ -10225,18 +10222,18 @@
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B46:D46)</f>
         <v>0</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E46&gt;6,6,$E46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B47" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A47)</f>
@@ -10251,18 +10248,18 @@
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B47:D47)</f>
         <v>0</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E47&gt;6,6,$E47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B48" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A48)</f>
@@ -10277,18 +10274,18 @@
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B48:D48)</f>
         <v>0</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E48&gt;6,6,$E48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B49" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A49)</f>
@@ -10303,18 +10300,18 @@
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B49:D49)</f>
         <v>0</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E49&gt;6,6,$E49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B50" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A50)</f>
@@ -10329,18 +10326,18 @@
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B50:D50)</f>
         <v>0</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E50&gt;6,6,$E50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B51" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A51)</f>
@@ -10355,18 +10352,18 @@
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B51:D51)</f>
         <v>0</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E51&gt;6,6,$E51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B52" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A52)</f>
@@ -10381,18 +10378,18 @@
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B52:D52)</f>
         <v>0</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E52&gt;6,6,$E52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B53" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A53)</f>
@@ -10407,18 +10404,18 @@
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B53:D53)</f>
         <v>0</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E53&gt;6,6,$E53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B54" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A54)</f>
@@ -10433,18 +10430,18 @@
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B54:D54)</f>
         <v>0</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E54&gt;6,6,$E54)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B55" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A55)</f>
@@ -10459,18 +10456,18 @@
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B55:D55)</f>
         <v>0</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E55&gt;6,6,$E55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B56" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A56)</f>
@@ -10485,18 +10482,18 @@
         <v>0</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B56:D56)</f>
         <v>0</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E56&gt;6,6,$E56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B57" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A57)</f>
@@ -10511,18 +10508,18 @@
         <v>0</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B57:D57)</f>
         <v>0</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E57&gt;6,6,$E57)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A58)</f>
@@ -10537,18 +10534,18 @@
         <v>0</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B58:D58)</f>
         <v>0</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E58&gt;6,6,$E58)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B59" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A59)</f>
@@ -10563,18 +10560,18 @@
         <v>0</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B59:D59)</f>
         <v>0</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E59&gt;6,6,$E59)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B60" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A60)</f>
@@ -10589,18 +10586,18 @@
         <v>0</v>
       </c>
       <c r="E60" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B60:D60)</f>
         <v>0</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E60&gt;6,6,$E60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A61)</f>
@@ -10615,18 +10612,18 @@
         <v>0</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B61:D61)</f>
         <v>0</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E61&gt;6,6,$E61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B62" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A62)</f>
@@ -10641,18 +10638,18 @@
         <v>0</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B62:D62)</f>
         <v>0</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E62&gt;6,6,$E62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B63" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A63)</f>
@@ -10667,18 +10664,18 @@
         <v>0</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B63:D63)</f>
         <v>0</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E63&gt;6,6,$E63)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B64" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A64)</f>
@@ -10693,18 +10690,18 @@
         <v>0</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B64:D64)</f>
         <v>0</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E64&gt;6,6,$E64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B65" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A65)</f>
@@ -10719,18 +10716,18 @@
         <v>0</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(B65:D65)</f>
         <v>0</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8">
-        <f t="shared" si="3"/>
+        <f>IF($E65&gt;6,6,$E65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B66" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A66)</f>
@@ -10745,18 +10742,18 @@
         <v>0</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" ref="E66:E97" si="4">SUM(B66:D66)</f>
+        <f>SUM(B66:D66)</f>
         <v>0</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8">
-        <f t="shared" ref="G66:G97" si="5">IF($E66&gt;6,6,$E66)</f>
+        <f>IF($E66&gt;6,6,$E66)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B67" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A67)</f>
@@ -10771,18 +10768,18 @@
         <v>0</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B67:D67)</f>
         <v>0</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E67&gt;6,6,$E67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B68" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A68)</f>
@@ -10797,18 +10794,18 @@
         <v>0</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B68:D68)</f>
         <v>0</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E68&gt;6,6,$E68)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B69" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A69)</f>
@@ -10823,18 +10820,18 @@
         <v>0</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B69:D69)</f>
         <v>0</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E69&gt;6,6,$E69)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B70" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A70)</f>
@@ -10849,18 +10846,18 @@
         <v>0</v>
       </c>
       <c r="E70" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B70:D70)</f>
         <v>0</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E70&gt;6,6,$E70)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B71" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A71)</f>
@@ -10875,18 +10872,18 @@
         <v>0</v>
       </c>
       <c r="E71" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B71:D71)</f>
         <v>0</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E71&gt;6,6,$E71)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B72" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A72)</f>
@@ -10901,18 +10898,18 @@
         <v>0</v>
       </c>
       <c r="E72" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B72:D72)</f>
         <v>0</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E72&gt;6,6,$E72)</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B73" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A73)</f>
@@ -10927,18 +10924,18 @@
         <v>0</v>
       </c>
       <c r="E73" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B73:D73)</f>
         <v>0</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E73&gt;6,6,$E73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B74" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A74)</f>
@@ -10953,18 +10950,18 @@
         <v>0</v>
       </c>
       <c r="E74" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B74:D74)</f>
         <v>0</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E74&gt;6,6,$E74)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B75" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A75)</f>
@@ -10979,18 +10976,18 @@
         <v>0</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B75:D75)</f>
         <v>0</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E75&gt;6,6,$E75)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B76" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A76)</f>
@@ -11005,18 +11002,18 @@
         <v>0</v>
       </c>
       <c r="E76" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B76:D76)</f>
         <v>0</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E76&gt;6,6,$E76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B77" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A77)</f>
@@ -11031,18 +11028,18 @@
         <v>0</v>
       </c>
       <c r="E77" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B77:D77)</f>
         <v>0</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E77&gt;6,6,$E77)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B78" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A78)</f>
@@ -11057,18 +11054,18 @@
         <v>0</v>
       </c>
       <c r="E78" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B78:D78)</f>
         <v>0</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E78&gt;6,6,$E78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B79" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A79)</f>
@@ -11083,18 +11080,18 @@
         <v>0</v>
       </c>
       <c r="E79" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B79:D79)</f>
         <v>0</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E79&gt;6,6,$E79)</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B80" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A80)</f>
@@ -11109,18 +11106,18 @@
         <v>0</v>
       </c>
       <c r="E80" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B80:D80)</f>
         <v>0</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E80&gt;6,6,$E80)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B81" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A81)</f>
@@ -11135,18 +11132,18 @@
         <v>0</v>
       </c>
       <c r="E81" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B81:D81)</f>
         <v>0</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E81&gt;6,6,$E81)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B82" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A82)</f>
@@ -11161,18 +11158,18 @@
         <v>0</v>
       </c>
       <c r="E82" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B82:D82)</f>
         <v>0</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E82&gt;6,6,$E82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B83" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A83)</f>
@@ -11187,18 +11184,18 @@
         <v>0</v>
       </c>
       <c r="E83" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B83:D83)</f>
         <v>0</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E83&gt;6,6,$E83)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B84" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A84)</f>
@@ -11213,18 +11210,18 @@
         <v>0</v>
       </c>
       <c r="E84" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B84:D84)</f>
         <v>0</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E84&gt;6,6,$E84)</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B85" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A85)</f>
@@ -11239,18 +11236,18 @@
         <v>0</v>
       </c>
       <c r="E85" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B85:D85)</f>
         <v>0</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E85&gt;6,6,$E85)</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B86" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A86)</f>
@@ -11265,18 +11262,18 @@
         <v>0</v>
       </c>
       <c r="E86" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B86:D86)</f>
         <v>0</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E86&gt;6,6,$E86)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B87" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A87)</f>
@@ -11291,18 +11288,18 @@
         <v>0</v>
       </c>
       <c r="E87" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B87:D87)</f>
         <v>0</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E87&gt;6,6,$E87)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B88" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A88)</f>
@@ -11317,18 +11314,18 @@
         <v>0</v>
       </c>
       <c r="E88" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B88:D88)</f>
         <v>0</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E88&gt;6,6,$E88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B89" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A89)</f>
@@ -11343,18 +11340,18 @@
         <v>0</v>
       </c>
       <c r="E89" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B89:D89)</f>
         <v>0</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E89&gt;6,6,$E89)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B90" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A90)</f>
@@ -11369,18 +11366,18 @@
         <v>0</v>
       </c>
       <c r="E90" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B90:D90)</f>
         <v>0</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E90&gt;6,6,$E90)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B91" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A91)</f>
@@ -11395,18 +11392,18 @@
         <v>0</v>
       </c>
       <c r="E91" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B91:D91)</f>
         <v>0</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E91&gt;6,6,$E91)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B92" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A92)</f>
@@ -11421,18 +11418,18 @@
         <v>0</v>
       </c>
       <c r="E92" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B92:D92)</f>
         <v>0</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E92&gt;6,6,$E92)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B93" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A93)</f>
@@ -11447,18 +11444,18 @@
         <v>0</v>
       </c>
       <c r="E93" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B93:D93)</f>
         <v>0</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E93&gt;6,6,$E93)</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B94" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A94)</f>
@@ -11473,18 +11470,18 @@
         <v>0</v>
       </c>
       <c r="E94" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B94:D94)</f>
         <v>0</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E94&gt;6,6,$E94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B95" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A95)</f>
@@ -11499,18 +11496,18 @@
         <v>0</v>
       </c>
       <c r="E95" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B95:D95)</f>
         <v>0</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E95&gt;6,6,$E95)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B96" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A96)</f>
@@ -11525,18 +11522,18 @@
         <v>0</v>
       </c>
       <c r="E96" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B96:D96)</f>
         <v>0</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E96&gt;6,6,$E96)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B97" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A97)</f>
@@ -11551,18 +11548,18 @@
         <v>0</v>
       </c>
       <c r="E97" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B97:D97)</f>
         <v>0</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8">
-        <f t="shared" si="5"/>
+        <f>IF($E97&gt;6,6,$E97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B98" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A98)</f>
@@ -11577,18 +11574,18 @@
         <v>0</v>
       </c>
       <c r="E98" s="8">
-        <f t="shared" ref="E98:E129" si="6">SUM(B98:D98)</f>
+        <f>SUM(B98:D98)</f>
         <v>0</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="8">
-        <f t="shared" ref="G98:G129" si="7">IF($E98&gt;6,6,$E98)</f>
+        <f>IF($E98&gt;6,6,$E98)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B99" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A99)</f>
@@ -11603,18 +11600,18 @@
         <v>0</v>
       </c>
       <c r="E99" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B99:D99)</f>
         <v>0</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E99&gt;6,6,$E99)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B100" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A100)</f>
@@ -11629,18 +11626,18 @@
         <v>0</v>
       </c>
       <c r="E100" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B100:D100)</f>
         <v>0</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E100&gt;6,6,$E100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B101" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A101)</f>
@@ -11655,18 +11652,18 @@
         <v>0</v>
       </c>
       <c r="E101" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B101:D101)</f>
         <v>0</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E101&gt;6,6,$E101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B102" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A102)</f>
@@ -11681,18 +11678,18 @@
         <v>0</v>
       </c>
       <c r="E102" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B102:D102)</f>
         <v>0</v>
       </c>
       <c r="F102" s="8"/>
       <c r="G102" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E102&gt;6,6,$E102)</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B103" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A103)</f>
@@ -11707,18 +11704,18 @@
         <v>0</v>
       </c>
       <c r="E103" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B103:D103)</f>
         <v>0</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E103&gt;6,6,$E103)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B104" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A104)</f>
@@ -11733,18 +11730,18 @@
         <v>0</v>
       </c>
       <c r="E104" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B104:D104)</f>
         <v>0</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E104&gt;6,6,$E104)</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B105" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A105)</f>
@@ -11759,18 +11756,18 @@
         <v>0</v>
       </c>
       <c r="E105" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B105:D105)</f>
         <v>0</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E105&gt;6,6,$E105)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B106" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A106)</f>
@@ -11785,18 +11782,18 @@
         <v>0</v>
       </c>
       <c r="E106" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B106:D106)</f>
         <v>0</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E106&gt;6,6,$E106)</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B107" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A107)</f>
@@ -11811,18 +11808,18 @@
         <v>0</v>
       </c>
       <c r="E107" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B107:D107)</f>
         <v>0</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E107&gt;6,6,$E107)</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B108" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A108)</f>
@@ -11837,18 +11834,18 @@
         <v>0</v>
       </c>
       <c r="E108" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B108:D108)</f>
         <v>0</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E108&gt;6,6,$E108)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B109" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A109)</f>
@@ -11863,18 +11860,18 @@
         <v>0</v>
       </c>
       <c r="E109" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B109:D109)</f>
         <v>0</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E109&gt;6,6,$E109)</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B110" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A110)</f>
@@ -11889,18 +11886,18 @@
         <v>0</v>
       </c>
       <c r="E110" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B110:D110)</f>
         <v>0</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E110&gt;6,6,$E110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B111" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A111)</f>
@@ -11915,18 +11912,18 @@
         <v>0</v>
       </c>
       <c r="E111" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B111:D111)</f>
         <v>0</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E111&gt;6,6,$E111)</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B112" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A112)</f>
@@ -11941,18 +11938,18 @@
         <v>0</v>
       </c>
       <c r="E112" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B112:D112)</f>
         <v>0</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E112&gt;6,6,$E112)</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B113" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A113)</f>
@@ -11967,18 +11964,18 @@
         <v>0</v>
       </c>
       <c r="E113" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B113:D113)</f>
         <v>0</v>
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E113&gt;6,6,$E113)</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B114" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A114)</f>
@@ -11993,18 +11990,18 @@
         <v>0</v>
       </c>
       <c r="E114" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B114:D114)</f>
         <v>0</v>
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E114&gt;6,6,$E114)</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B115" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A115)</f>
@@ -12019,18 +12016,18 @@
         <v>0</v>
       </c>
       <c r="E115" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B115:D115)</f>
         <v>0</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E115&gt;6,6,$E115)</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B116" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A116)</f>
@@ -12045,18 +12042,18 @@
         <v>0</v>
       </c>
       <c r="E116" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B116:D116)</f>
         <v>0</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E116&gt;6,6,$E116)</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B117" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A117)</f>
@@ -12071,18 +12068,18 @@
         <v>0</v>
       </c>
       <c r="E117" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B117:D117)</f>
         <v>0</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E117&gt;6,6,$E117)</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B118" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A118)</f>
@@ -12097,18 +12094,18 @@
         <v>0</v>
       </c>
       <c r="E118" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B118:D118)</f>
         <v>0</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E118&gt;6,6,$E118)</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B119" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A119)</f>
@@ -12123,18 +12120,18 @@
         <v>0</v>
       </c>
       <c r="E119" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B119:D119)</f>
         <v>0</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E119&gt;6,6,$E119)</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B120" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A120)</f>
@@ -12149,18 +12146,18 @@
         <v>0</v>
       </c>
       <c r="E120" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B120:D120)</f>
         <v>0</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E120&gt;6,6,$E120)</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B121" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A121)</f>
@@ -12175,18 +12172,18 @@
         <v>0</v>
       </c>
       <c r="E121" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B121:D121)</f>
         <v>0</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E121&gt;6,6,$E121)</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B122" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A122)</f>
@@ -12201,18 +12198,18 @@
         <v>0</v>
       </c>
       <c r="E122" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B122:D122)</f>
         <v>0</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E122&gt;6,6,$E122)</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B123" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A123)</f>
@@ -12227,18 +12224,18 @@
         <v>0</v>
       </c>
       <c r="E123" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B123:D123)</f>
         <v>0</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E123&gt;6,6,$E123)</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B124" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A124)</f>
@@ -12253,18 +12250,18 @@
         <v>0</v>
       </c>
       <c r="E124" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B124:D124)</f>
         <v>0</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E124&gt;6,6,$E124)</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B125" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A125)</f>
@@ -12279,18 +12276,18 @@
         <v>0</v>
       </c>
       <c r="E125" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B125:D125)</f>
         <v>0</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E125&gt;6,6,$E125)</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B126" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A126)</f>
@@ -12305,18 +12302,18 @@
         <v>0</v>
       </c>
       <c r="E126" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B126:D126)</f>
         <v>0</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E126&gt;6,6,$E126)</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B127" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A127)</f>
@@ -12331,18 +12328,18 @@
         <v>0</v>
       </c>
       <c r="E127" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B127:D127)</f>
         <v>0</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E127&gt;6,6,$E127)</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B128" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A128)</f>
@@ -12357,18 +12354,18 @@
         <v>0</v>
       </c>
       <c r="E128" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B128:D128)</f>
         <v>0</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E128&gt;6,6,$E128)</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B129" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A129)</f>
@@ -12383,18 +12380,18 @@
         <v>0</v>
       </c>
       <c r="E129" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(B129:D129)</f>
         <v>0</v>
       </c>
       <c r="F129" s="8"/>
       <c r="G129" s="8">
-        <f t="shared" si="7"/>
+        <f>IF($E129&gt;6,6,$E129)</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B130" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A130)</f>
@@ -12409,18 +12406,18 @@
         <v>0</v>
       </c>
       <c r="E130" s="8">
-        <f t="shared" ref="E130:E161" si="8">SUM(B130:D130)</f>
+        <f>SUM(B130:D130)</f>
         <v>0</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="8">
-        <f t="shared" ref="G130:G149" si="9">IF($E130&gt;6,6,$E130)</f>
+        <f>IF($E130&gt;6,6,$E130)</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B131" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A131)</f>
@@ -12435,18 +12432,18 @@
         <v>0</v>
       </c>
       <c r="E131" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B131:D131)</f>
         <v>0</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E131&gt;6,6,$E131)</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B132" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A132)</f>
@@ -12461,18 +12458,18 @@
         <v>0</v>
       </c>
       <c r="E132" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B132:D132)</f>
         <v>0</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E132&gt;6,6,$E132)</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B133" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A133)</f>
@@ -12487,18 +12484,18 @@
         <v>0</v>
       </c>
       <c r="E133" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B133:D133)</f>
         <v>0</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E133&gt;6,6,$E133)</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B134" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A134)</f>
@@ -12513,18 +12510,18 @@
         <v>0</v>
       </c>
       <c r="E134" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B134:D134)</f>
         <v>0</v>
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E134&gt;6,6,$E134)</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B135" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A135)</f>
@@ -12539,18 +12536,18 @@
         <v>0</v>
       </c>
       <c r="E135" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B135:D135)</f>
         <v>0</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E135&gt;6,6,$E135)</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B136" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A136)</f>
@@ -12565,18 +12562,18 @@
         <v>0</v>
       </c>
       <c r="E136" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B136:D136)</f>
         <v>0</v>
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E136&gt;6,6,$E136)</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B137" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A137)</f>
@@ -12591,18 +12588,18 @@
         <v>0</v>
       </c>
       <c r="E137" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B137:D137)</f>
         <v>0</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E137&gt;6,6,$E137)</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B138" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A138)</f>
@@ -12617,18 +12614,18 @@
         <v>0</v>
       </c>
       <c r="E138" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B138:D138)</f>
         <v>0</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E138&gt;6,6,$E138)</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B139" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A139)</f>
@@ -12643,18 +12640,18 @@
         <v>0</v>
       </c>
       <c r="E139" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B139:D139)</f>
         <v>0</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E139&gt;6,6,$E139)</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B140" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A140)</f>
@@ -12669,18 +12666,18 @@
         <v>0</v>
       </c>
       <c r="E140" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B140:D140)</f>
         <v>0</v>
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E140&gt;6,6,$E140)</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B141" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A141)</f>
@@ -12695,18 +12692,18 @@
         <v>0</v>
       </c>
       <c r="E141" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B141:D141)</f>
         <v>0</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E141&gt;6,6,$E141)</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B142" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A142)</f>
@@ -12721,18 +12718,18 @@
         <v>0</v>
       </c>
       <c r="E142" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B142:D142)</f>
         <v>0</v>
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E142&gt;6,6,$E142)</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B143" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A143)</f>
@@ -12747,18 +12744,18 @@
         <v>0</v>
       </c>
       <c r="E143" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B143:D143)</f>
         <v>0</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E143&gt;6,6,$E143)</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B144" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A144)</f>
@@ -12773,18 +12770,18 @@
         <v>0</v>
       </c>
       <c r="E144" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B144:D144)</f>
         <v>0</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E144&gt;6,6,$E144)</f>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B145" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A145)</f>
@@ -12799,18 +12796,18 @@
         <v>0</v>
       </c>
       <c r="E145" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B145:D145)</f>
         <v>0</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E145&gt;6,6,$E145)</f>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B146" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A146)</f>
@@ -12825,18 +12822,18 @@
         <v>0</v>
       </c>
       <c r="E146" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B146:D146)</f>
         <v>0</v>
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E146&gt;6,6,$E146)</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B147" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A147)</f>
@@ -12851,18 +12848,18 @@
         <v>0</v>
       </c>
       <c r="E147" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B147:D147)</f>
         <v>0</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E147&gt;6,6,$E147)</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B148" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A148)</f>
@@ -12877,18 +12874,18 @@
         <v>0</v>
       </c>
       <c r="E148" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B148:D148)</f>
         <v>0</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E148&gt;6,6,$E148)</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B149" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A149)</f>
@@ -12903,18 +12900,18 @@
         <v>0</v>
       </c>
       <c r="E149" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(B149:D149)</f>
         <v>0</v>
       </c>
       <c r="F149" s="8"/>
       <c r="G149" s="8">
-        <f t="shared" si="9"/>
+        <f>IF($E149&gt;6,6,$E149)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:G149">
-    <sortCondition descending="1" ref="E1"/>
+    <sortCondition descending="1" ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13012,7 +13009,7 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A3)</f>
@@ -13038,7 +13035,7 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A4)</f>
@@ -13064,7 +13061,7 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A5)</f>
@@ -13090,7 +13087,7 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A6)</f>
@@ -13116,7 +13113,7 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A7)</f>
@@ -13142,7 +13139,7 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A8)</f>
@@ -13168,7 +13165,7 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A9)</f>
@@ -13194,7 +13191,7 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A10)</f>
@@ -13220,7 +13217,7 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A11)</f>
@@ -13246,7 +13243,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A12)</f>
@@ -13298,7 +13295,7 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A14)</f>
@@ -13324,7 +13321,7 @@
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A15)</f>
@@ -13350,7 +13347,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A16)</f>
@@ -13376,7 +13373,7 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A17)</f>
@@ -13402,7 +13399,7 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A18)</f>
@@ -13428,7 +13425,7 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A19)</f>
@@ -13454,7 +13451,7 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A20)</f>
@@ -13480,7 +13477,7 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A21)</f>
@@ -13506,7 +13503,7 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A22)</f>
@@ -13532,7 +13529,7 @@
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A23)</f>
@@ -13558,7 +13555,7 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A24)</f>
@@ -13584,7 +13581,7 @@
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A25)</f>
@@ -13610,7 +13607,7 @@
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A26)</f>
@@ -13636,7 +13633,7 @@
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A27)</f>
@@ -13662,7 +13659,7 @@
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A28)</f>
@@ -13688,7 +13685,7 @@
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A29)</f>
@@ -13714,7 +13711,7 @@
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A30)</f>
@@ -13740,7 +13737,7 @@
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A31)</f>
@@ -13766,7 +13763,7 @@
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A32)</f>
@@ -13792,7 +13789,7 @@
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A33)</f>
@@ -13818,7 +13815,7 @@
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A34)</f>
@@ -13844,7 +13841,7 @@
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A35)</f>
@@ -13870,7 +13867,7 @@
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A36)</f>
@@ -13896,7 +13893,7 @@
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A37)</f>
@@ -13922,7 +13919,7 @@
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A38)</f>
@@ -13948,7 +13945,7 @@
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A39)</f>
@@ -13974,7 +13971,7 @@
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A40)</f>
@@ -14000,7 +13997,7 @@
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A41)</f>
@@ -14026,7 +14023,7 @@
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A42)</f>
@@ -14052,7 +14049,7 @@
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A43)</f>
@@ -14078,7 +14075,7 @@
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A44)</f>
@@ -14104,7 +14101,7 @@
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B45" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A45)</f>
@@ -14130,7 +14127,7 @@
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B46" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A46)</f>
@@ -14156,7 +14153,7 @@
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B47" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A47)</f>
@@ -14182,7 +14179,7 @@
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B48" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A48)</f>
@@ -14208,7 +14205,7 @@
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B49" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A49)</f>
@@ -14234,7 +14231,7 @@
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B50" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A50)</f>
@@ -14260,7 +14257,7 @@
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B51" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A51)</f>
@@ -14286,7 +14283,7 @@
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B52" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A52)</f>
@@ -14312,7 +14309,7 @@
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B53" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A53)</f>
@@ -14338,7 +14335,7 @@
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B54" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A54)</f>
@@ -14364,7 +14361,7 @@
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B55" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A55)</f>
@@ -14390,7 +14387,7 @@
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B56" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A56)</f>
@@ -14416,7 +14413,7 @@
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B57" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A57)</f>
@@ -14442,7 +14439,7 @@
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B58" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A58)</f>
@@ -14468,7 +14465,7 @@
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B59" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A59)</f>
@@ -14494,7 +14491,7 @@
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A60)</f>
@@ -14520,7 +14517,7 @@
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A61)</f>
@@ -14546,7 +14543,7 @@
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A62)</f>
@@ -14572,7 +14569,7 @@
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A63)</f>
@@ -14598,7 +14595,7 @@
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B64" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A64)</f>
@@ -14624,7 +14621,7 @@
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B65" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A65)</f>
@@ -14650,7 +14647,7 @@
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A66)</f>
@@ -14676,7 +14673,7 @@
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A67)</f>
@@ -14702,7 +14699,7 @@
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B68" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A68)</f>
@@ -14728,7 +14725,7 @@
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B69" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A69)</f>
@@ -14754,7 +14751,7 @@
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B70" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A70)</f>
@@ -14780,7 +14777,7 @@
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B71" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A71)</f>
@@ -14806,7 +14803,7 @@
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B72" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A72)</f>
@@ -14832,7 +14829,7 @@
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B73" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A73)</f>
@@ -14858,7 +14855,7 @@
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B74" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A74)</f>
@@ -14884,7 +14881,7 @@
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B75" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A75)</f>
@@ -14910,7 +14907,7 @@
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B76" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A76)</f>
@@ -14936,7 +14933,7 @@
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B77" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A77)</f>
@@ -14962,7 +14959,7 @@
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B78" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A78)</f>
@@ -14988,7 +14985,7 @@
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A79)</f>
@@ -15014,7 +15011,7 @@
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A80)</f>
@@ -15040,7 +15037,7 @@
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A81)</f>
@@ -15066,7 +15063,7 @@
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A82)</f>
@@ -15092,7 +15089,7 @@
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A83)</f>
@@ -15118,7 +15115,7 @@
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B84" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A84)</f>
@@ -15144,7 +15141,7 @@
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B85" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A85)</f>
@@ -15170,7 +15167,7 @@
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B86" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A86)</f>
@@ -15196,7 +15193,7 @@
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B87" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A87)</f>
@@ -15222,7 +15219,7 @@
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B88" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A88)</f>
@@ -15248,7 +15245,7 @@
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B89" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A89)</f>
@@ -15274,7 +15271,7 @@
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B90" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A90)</f>
@@ -15300,7 +15297,7 @@
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B91" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A91)</f>
@@ -15326,7 +15323,7 @@
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B92" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A92)</f>
@@ -15352,7 +15349,7 @@
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B93" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A93)</f>
@@ -15378,7 +15375,7 @@
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B94" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A94)</f>
@@ -15404,7 +15401,7 @@
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B95" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A95)</f>
@@ -15430,7 +15427,7 @@
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B96" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A96)</f>
@@ -15456,7 +15453,7 @@
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B97" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A97)</f>
@@ -15482,7 +15479,7 @@
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B98" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A98)</f>
@@ -15508,7 +15505,7 @@
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B99" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A99)</f>
@@ -15534,7 +15531,7 @@
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B100" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A100)</f>
@@ -15560,7 +15557,7 @@
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B101" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A101)</f>
@@ -15586,7 +15583,7 @@
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B102" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A102)</f>
@@ -15612,7 +15609,7 @@
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B103" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A103)</f>
@@ -15638,7 +15635,7 @@
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B104" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A104)</f>
@@ -15664,7 +15661,7 @@
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B105" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A105)</f>
@@ -15690,7 +15687,7 @@
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B106" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A106)</f>
@@ -15716,7 +15713,7 @@
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B107" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A107)</f>
@@ -15742,7 +15739,7 @@
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B108" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A108)</f>
@@ -15768,7 +15765,7 @@
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B109" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A109)</f>
@@ -15794,7 +15791,7 @@
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B110" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A110)</f>
@@ -15820,7 +15817,7 @@
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B111" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A111)</f>
@@ -15846,7 +15843,7 @@
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B112" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A112)</f>
@@ -15872,7 +15869,7 @@
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B113" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A113)</f>
@@ -15898,7 +15895,7 @@
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B114" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A114)</f>
@@ -15924,7 +15921,7 @@
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B115" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A115)</f>
@@ -15950,7 +15947,7 @@
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B116" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A116)</f>
@@ -15976,7 +15973,7 @@
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B117" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A117)</f>
@@ -16002,7 +15999,7 @@
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B118" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A118)</f>
@@ -16028,7 +16025,7 @@
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B119" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A119)</f>
@@ -16054,7 +16051,7 @@
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B120" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A120)</f>
@@ -16080,7 +16077,7 @@
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B121" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A121)</f>
@@ -16106,7 +16103,7 @@
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B122" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A122)</f>
@@ -16132,7 +16129,7 @@
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B123" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A123)</f>
@@ -16158,7 +16155,7 @@
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B124" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A124)</f>
@@ -16184,7 +16181,7 @@
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B125" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A125)</f>
@@ -16210,7 +16207,7 @@
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B126" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A126)</f>
@@ -16236,7 +16233,7 @@
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B127" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A127)</f>
@@ -16262,7 +16259,7 @@
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B128" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A128)</f>
@@ -16288,7 +16285,7 @@
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B129" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A129)</f>
@@ -16314,7 +16311,7 @@
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B130" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A130)</f>
@@ -16329,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="8">
-        <f t="shared" ref="E130:E161" si="8">SUM(B130:D130)</f>
+        <f t="shared" ref="E130:E141" si="8">SUM(B130:D130)</f>
         <v>0</v>
       </c>
       <c r="F130" s="8"/>
@@ -16340,7 +16337,7 @@
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B131" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A131)</f>
@@ -16366,7 +16363,7 @@
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B132" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A132)</f>
@@ -16392,7 +16389,7 @@
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B133" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A133)</f>
@@ -16418,7 +16415,7 @@
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B134" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A134)</f>
@@ -16444,7 +16441,7 @@
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B135" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A135)</f>
@@ -16470,7 +16467,7 @@
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B136" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A136)</f>
@@ -16496,7 +16493,7 @@
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B137" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A137)</f>
@@ -16522,7 +16519,7 @@
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B138" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A138)</f>
@@ -16548,7 +16545,7 @@
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B139" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A139)</f>
@@ -16574,7 +16571,7 @@
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B140" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A140)</f>
@@ -16600,7 +16597,7 @@
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B141" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A141)</f>
@@ -16636,8 +16633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16684,7 +16681,7 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -16718,7 +16715,7 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A3)</f>
@@ -16744,7 +16741,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A4)</f>
@@ -16770,7 +16767,7 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A5)</f>
@@ -16796,7 +16793,7 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A6)</f>
@@ -16822,7 +16819,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A7)</f>
@@ -16848,7 +16845,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A8)</f>
@@ -16874,7 +16871,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A9)</f>
@@ -16900,7 +16897,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A10)</f>
@@ -16926,7 +16923,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A11)</f>
@@ -16978,7 +16975,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A13)</f>
@@ -17004,7 +17001,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A14)</f>
@@ -17030,7 +17027,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A15)</f>
@@ -17056,7 +17053,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A16)</f>
@@ -17082,7 +17079,7 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A17)</f>
@@ -17108,7 +17105,7 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A18)</f>
@@ -17134,7 +17131,7 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A19)</f>
@@ -17160,7 +17157,7 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A20)</f>
@@ -17186,7 +17183,7 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A21)</f>
@@ -17212,7 +17209,7 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A22)</f>
@@ -17264,7 +17261,7 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A24)</f>
@@ -17290,7 +17287,7 @@
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A25)</f>
@@ -17316,7 +17313,7 @@
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A26)</f>
@@ -17342,7 +17339,7 @@
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A27)</f>
@@ -17368,7 +17365,7 @@
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A28)</f>
@@ -17394,7 +17391,7 @@
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A29)</f>
@@ -17420,7 +17417,7 @@
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A30)</f>
@@ -17446,7 +17443,7 @@
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A31)</f>
@@ -17472,7 +17469,7 @@
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A32)</f>
@@ -17498,7 +17495,7 @@
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A33)</f>
@@ -17524,7 +17521,7 @@
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A34)</f>
@@ -17550,7 +17547,7 @@
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A35)</f>
@@ -17576,7 +17573,7 @@
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B36" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A36)</f>
@@ -17602,7 +17599,7 @@
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A37)</f>
@@ -17628,7 +17625,7 @@
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A38)</f>
@@ -17654,7 +17651,7 @@
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A39)</f>
@@ -17680,7 +17677,7 @@
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A40)</f>
@@ -17706,7 +17703,7 @@
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A41)</f>
@@ -17732,7 +17729,7 @@
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A42)</f>
@@ -17758,7 +17755,7 @@
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B43" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A43)</f>
@@ -17784,7 +17781,7 @@
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B44" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A44)</f>
@@ -17810,7 +17807,7 @@
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B45" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A45)</f>
@@ -17836,7 +17833,7 @@
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B46" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A46)</f>
@@ -17862,7 +17859,7 @@
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B47" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A47)</f>
@@ -17888,7 +17885,7 @@
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B48" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A48)</f>
@@ -17914,7 +17911,7 @@
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B49" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A49)</f>
@@ -17940,7 +17937,7 @@
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B50" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A50)</f>
@@ -17966,7 +17963,7 @@
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B51" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A51)</f>
@@ -17992,7 +17989,7 @@
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B52" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A52)</f>
@@ -18018,7 +18015,7 @@
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B53" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A53)</f>
@@ -18044,7 +18041,7 @@
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B54" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A54)</f>
@@ -18070,7 +18067,7 @@
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B55" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A55)</f>
@@ -18096,7 +18093,7 @@
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B56" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A56)</f>
@@ -18122,7 +18119,7 @@
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B57" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A57)</f>
@@ -18148,7 +18145,7 @@
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B58" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A58)</f>
@@ -18174,7 +18171,7 @@
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B59" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A59)</f>
@@ -18200,7 +18197,7 @@
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B60" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A60)</f>
@@ -18226,7 +18223,7 @@
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B61" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A61)</f>
@@ -18252,7 +18249,7 @@
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B62" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A62)</f>
@@ -18278,7 +18275,7 @@
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B63" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A63)</f>
@@ -18304,7 +18301,7 @@
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B64" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A64)</f>
@@ -18330,7 +18327,7 @@
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B65" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A65)</f>
@@ -18356,7 +18353,7 @@
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B66" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A66)</f>
@@ -18382,7 +18379,7 @@
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B67" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A67)</f>
@@ -18408,7 +18405,7 @@
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B68" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A68)</f>
@@ -18434,7 +18431,7 @@
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B69" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A69)</f>
@@ -18460,7 +18457,7 @@
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B70" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A70)</f>
@@ -18486,7 +18483,7 @@
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B71" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A71)</f>
@@ -18512,7 +18509,7 @@
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B72" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A72)</f>
@@ -18538,7 +18535,7 @@
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B73" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A73)</f>
@@ -18564,7 +18561,7 @@
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B74" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A74)</f>
@@ -18590,7 +18587,7 @@
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B75" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A75)</f>
@@ -18616,7 +18613,7 @@
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B76" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A76)</f>
@@ -18642,7 +18639,7 @@
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B77" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A77)</f>
@@ -18668,7 +18665,7 @@
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B78" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A78)</f>
@@ -18694,7 +18691,7 @@
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B79" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A79)</f>
@@ -18720,7 +18717,7 @@
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B80" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A80)</f>
@@ -18746,7 +18743,7 @@
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B81" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A81)</f>
@@ -18772,7 +18769,7 @@
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B82" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A82)</f>
@@ -18798,7 +18795,7 @@
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B83" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A83)</f>
@@ -18824,7 +18821,7 @@
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B84" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A84)</f>
@@ -18850,7 +18847,7 @@
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B85" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A85)</f>
@@ -18876,7 +18873,7 @@
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B86" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A86)</f>
@@ -18902,7 +18899,7 @@
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B87" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A87)</f>
@@ -18928,7 +18925,7 @@
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B88" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A88)</f>
@@ -18954,7 +18951,7 @@
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B89" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A89)</f>
@@ -18980,7 +18977,7 @@
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B90" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A90)</f>
@@ -19006,7 +19003,7 @@
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B91" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A91)</f>
@@ -19032,7 +19029,7 @@
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B92" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A92)</f>
@@ -19058,7 +19055,7 @@
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B93" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A93)</f>
@@ -19084,7 +19081,7 @@
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B94" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A94)</f>
@@ -19110,7 +19107,7 @@
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B95" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A95)</f>
@@ -19136,7 +19133,7 @@
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B96" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A96)</f>
@@ -19162,7 +19159,7 @@
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B97" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A97)</f>
@@ -19188,7 +19185,7 @@
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B98" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A98)</f>
@@ -19214,7 +19211,7 @@
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B99" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A99)</f>
@@ -19240,7 +19237,7 @@
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B100" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A100)</f>
@@ -19266,7 +19263,7 @@
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B101" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A101)</f>
@@ -19292,7 +19289,7 @@
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B102" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A102)</f>
@@ -19318,7 +19315,7 @@
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B103" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A103)</f>
@@ -19344,7 +19341,7 @@
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B104" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A104)</f>
@@ -19370,7 +19367,7 @@
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B105" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A105)</f>
@@ -19396,7 +19393,7 @@
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B106" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A106)</f>
@@ -19422,7 +19419,7 @@
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B107" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A107)</f>
@@ -19448,7 +19445,7 @@
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B108" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A108)</f>
@@ -19474,7 +19471,7 @@
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B109" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A109)</f>
@@ -19500,7 +19497,7 @@
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B110" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A110)</f>
@@ -19526,7 +19523,7 @@
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B111" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A111)</f>
@@ -19552,7 +19549,7 @@
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B112" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A112)</f>
@@ -19578,7 +19575,7 @@
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B113" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A113)</f>
@@ -19604,7 +19601,7 @@
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B114" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A114)</f>
@@ -19630,7 +19627,7 @@
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B115" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A115)</f>
@@ -19656,7 +19653,7 @@
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B116" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A116)</f>
@@ -19682,7 +19679,7 @@
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B117" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A117)</f>
@@ -19708,7 +19705,7 @@
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B118" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A118)</f>
@@ -19734,7 +19731,7 @@
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B119" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A119)</f>
@@ -19760,7 +19757,7 @@
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B120" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A120)</f>
@@ -19786,7 +19783,7 @@
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B121" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A121)</f>
@@ -19812,7 +19809,7 @@
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B122" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A122)</f>
@@ -19838,7 +19835,7 @@
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B123" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A123)</f>
@@ -19864,7 +19861,7 @@
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B124" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A124)</f>
@@ -19890,7 +19887,7 @@
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B125" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A125)</f>
@@ -19916,7 +19913,7 @@
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B126" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A126)</f>
@@ -19942,7 +19939,7 @@
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B127" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A127)</f>
@@ -19968,7 +19965,7 @@
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B128" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A128)</f>
@@ -19994,7 +19991,7 @@
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B129" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A129)</f>
@@ -20020,7 +20017,7 @@
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B130" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A130)</f>
@@ -20035,7 +20032,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="8">
-        <f t="shared" ref="E130:E161" si="8">SUM(B130:D130)</f>
+        <f t="shared" ref="E130:E147" si="8">SUM(B130:D130)</f>
         <v>0</v>
       </c>
       <c r="F130" s="8"/>
@@ -20046,7 +20043,7 @@
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B131" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A131)</f>
@@ -20072,7 +20069,7 @@
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B132" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A132)</f>
@@ -20098,7 +20095,7 @@
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B133" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A133)</f>
@@ -20124,7 +20121,7 @@
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B134" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A134)</f>
@@ -20150,7 +20147,7 @@
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B135" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A135)</f>
@@ -20176,7 +20173,7 @@
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B136" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A136)</f>
@@ -20202,7 +20199,7 @@
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B137" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A137)</f>
@@ -20228,7 +20225,7 @@
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B138" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A138)</f>
@@ -20254,7 +20251,7 @@
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B139" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A139)</f>
@@ -20280,7 +20277,7 @@
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B140" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A140)</f>
@@ -20306,7 +20303,7 @@
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B141" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A141)</f>
@@ -20332,7 +20329,7 @@
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B142" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A142)</f>
@@ -20358,7 +20355,7 @@
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B143" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A143)</f>
@@ -20384,7 +20381,7 @@
     </row>
     <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B144" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A144)</f>
@@ -20410,7 +20407,7 @@
     </row>
     <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B145" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A145)</f>
@@ -20436,7 +20433,7 @@
     </row>
     <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B146" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A146)</f>
@@ -20462,7 +20459,7 @@
     </row>
     <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B147" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A147)</f>
@@ -20528,7 +20525,7 @@
       </c>
       <c r="B2" s="3">
         <f>('如梦-箱子'!$I$2)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3">
         <f>('若梦-箱子'!$I$2)</f>
@@ -20540,7 +20537,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUM(A2:D2)</f>
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
